--- a/Daerah Istimewa Yogyakarta/03_DIY_Infected_24032020.xlsx
+++ b/Daerah Istimewa Yogyakarta/03_DIY_Infected_24032020.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t>DISTRIBUSI JUMLAH PASIEN POSITIF COVID-19 BERDASARKAN WILAYAH KECAMATAN</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>28/03/2020</t>
+  </si>
+  <si>
+    <t>29/03/2020</t>
   </si>
   <si>
     <t>BANTUL</t>
@@ -697,7 +700,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="1"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2">
@@ -746,18 +749,20 @@
       <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="R2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5">
         <v>0.0</v>
@@ -801,12 +806,14 @@
       <c r="P3" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q3" s="5"/>
+      <c r="Q3" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R3" s="5"/>
     </row>
     <row r="4">
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5">
         <v>0.0</v>
@@ -850,12 +857,14 @@
       <c r="P4" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R4" s="5"/>
     </row>
     <row r="5">
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5">
         <v>0.0</v>
@@ -899,12 +908,14 @@
       <c r="P5" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q5" s="5"/>
+      <c r="Q5" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R5" s="5"/>
     </row>
     <row r="6">
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5">
         <v>0.0</v>
@@ -948,12 +959,14 @@
       <c r="P6" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R6" s="5"/>
     </row>
     <row r="7">
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5">
         <v>0.0</v>
@@ -997,12 +1010,14 @@
       <c r="P7" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q7" s="5"/>
+      <c r="Q7" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R7" s="5"/>
     </row>
     <row r="8">
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5">
         <v>0.0</v>
@@ -1046,12 +1061,14 @@
       <c r="P8" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R8" s="5"/>
     </row>
     <row r="9">
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5">
         <v>0.0</v>
@@ -1095,12 +1112,14 @@
       <c r="P9" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R9" s="5"/>
     </row>
     <row r="10">
       <c r="B10" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5">
         <v>0.0</v>
@@ -1144,12 +1163,14 @@
       <c r="P10" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R10" s="5"/>
     </row>
     <row r="11">
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="5">
         <v>0.0</v>
@@ -1193,12 +1214,14 @@
       <c r="P11" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R11" s="5"/>
     </row>
     <row r="12">
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="5">
         <v>0.0</v>
@@ -1242,12 +1265,14 @@
       <c r="P12" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q12" s="5"/>
+      <c r="Q12" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R12" s="5"/>
     </row>
     <row r="13">
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5">
         <v>0.0</v>
@@ -1291,12 +1316,14 @@
       <c r="P13" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q13" s="5"/>
+      <c r="Q13" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R13" s="5"/>
     </row>
     <row r="14">
       <c r="B14" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="5">
         <v>0.0</v>
@@ -1340,12 +1367,14 @@
       <c r="P14" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q14" s="5"/>
+      <c r="Q14" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R14" s="5"/>
     </row>
     <row r="15">
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="5">
         <v>0.0</v>
@@ -1389,12 +1418,14 @@
       <c r="P15" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q15" s="5"/>
+      <c r="Q15" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R15" s="5"/>
     </row>
     <row r="16">
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="5">
         <v>0.0</v>
@@ -1438,12 +1469,14 @@
       <c r="P16" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q16" s="5"/>
+      <c r="Q16" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R16" s="5"/>
     </row>
     <row r="17">
       <c r="B17" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="5">
         <v>0.0</v>
@@ -1487,12 +1520,14 @@
       <c r="P17" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q17" s="5"/>
+      <c r="Q17" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R17" s="5"/>
     </row>
     <row r="18">
       <c r="B18" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="5">
         <v>0.0</v>
@@ -1536,12 +1571,14 @@
       <c r="P18" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q18" s="5"/>
+      <c r="Q18" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R18" s="5"/>
     </row>
     <row r="19">
       <c r="B19" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="5">
         <v>0.0</v>
@@ -1585,15 +1622,17 @@
       <c r="P19" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q19" s="5"/>
+      <c r="Q19" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="5">
         <v>0.0</v>
@@ -1637,12 +1676,14 @@
       <c r="P20" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q20" s="5"/>
+      <c r="Q20" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R20" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="B21" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="5">
         <v>0.0</v>
@@ -1686,12 +1727,14 @@
       <c r="P21" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q21" s="5"/>
+      <c r="Q21" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R21" s="5"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="B22" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="5">
         <v>0.0</v>
@@ -1735,12 +1778,14 @@
       <c r="P22" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q22" s="5"/>
+      <c r="Q22" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R22" s="5"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="B23" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" s="5">
         <v>0.0</v>
@@ -1784,12 +1829,14 @@
       <c r="P23" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q23" s="5"/>
+      <c r="Q23" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R23" s="5"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="B24" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" s="5">
         <v>0.0</v>
@@ -1833,12 +1880,14 @@
       <c r="P24" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q24" s="5"/>
+      <c r="Q24" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R24" s="5"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="B25" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="5">
         <v>0.0</v>
@@ -1882,12 +1931,14 @@
       <c r="P25" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q25" s="5"/>
+      <c r="Q25" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R25" s="5"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="B26" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="5">
         <v>0.0</v>
@@ -1931,12 +1982,14 @@
       <c r="P26" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q26" s="5"/>
+      <c r="Q26" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R26" s="5"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="B27" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="5">
         <v>0.0</v>
@@ -1980,12 +2033,14 @@
       <c r="P27" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q27" s="5"/>
+      <c r="Q27" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R27" s="5"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="B28" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="5">
         <v>0.0</v>
@@ -2029,12 +2084,14 @@
       <c r="P28" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q28" s="5"/>
+      <c r="Q28" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R28" s="5"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="B29" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" s="5">
         <v>0.0</v>
@@ -2078,12 +2135,14 @@
       <c r="P29" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q29" s="5"/>
+      <c r="Q29" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R29" s="5"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="B30" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" s="5">
         <v>0.0</v>
@@ -2127,12 +2186,14 @@
       <c r="P30" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q30" s="5"/>
+      <c r="Q30" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R30" s="5"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="B31" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31" s="5">
         <v>0.0</v>
@@ -2176,12 +2237,14 @@
       <c r="P31" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q31" s="5"/>
+      <c r="Q31" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R31" s="5"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="B32" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="5">
         <v>0.0</v>
@@ -2225,12 +2288,14 @@
       <c r="P32" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q32" s="5"/>
+      <c r="Q32" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R32" s="5"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="B33" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" s="5">
         <v>0.0</v>
@@ -2274,12 +2339,14 @@
       <c r="P33" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q33" s="5"/>
+      <c r="Q33" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R33" s="5"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="B34" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" s="5">
         <v>0.0</v>
@@ -2323,12 +2390,14 @@
       <c r="P34" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q34" s="5"/>
+      <c r="Q34" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R34" s="5"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="B35" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" s="5">
         <v>0.0</v>
@@ -2372,12 +2441,14 @@
       <c r="P35" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q35" s="5"/>
+      <c r="Q35" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R35" s="5"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="B36" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" s="5">
         <v>0.0</v>
@@ -2421,15 +2492,17 @@
       <c r="P36" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q36" s="5"/>
+      <c r="Q36" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R36" s="5"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="5">
         <v>0.0</v>
@@ -2473,12 +2546,14 @@
       <c r="P37" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q37" s="5"/>
+      <c r="Q37" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R37" s="5"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="B38" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" s="5">
         <v>0.0</v>
@@ -2522,12 +2597,14 @@
       <c r="P38" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q38" s="5"/>
+      <c r="Q38" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R38" s="5"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="B39" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39" s="5">
         <v>0.0</v>
@@ -2571,12 +2648,14 @@
       <c r="P39" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q39" s="5"/>
+      <c r="Q39" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R39" s="5"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="B40" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40" s="5">
         <v>0.0</v>
@@ -2620,12 +2699,14 @@
       <c r="P40" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q40" s="5"/>
+      <c r="Q40" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R40" s="5"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="B41" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" s="5">
         <v>0.0</v>
@@ -2669,12 +2750,14 @@
       <c r="P41" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q41" s="5"/>
+      <c r="Q41" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R41" s="5"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="B42" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" s="5">
         <v>0.0</v>
@@ -2718,12 +2801,14 @@
       <c r="P42" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q42" s="5"/>
+      <c r="Q42" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R42" s="5"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="B43" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" s="5">
         <v>0.0</v>
@@ -2767,12 +2852,14 @@
       <c r="P43" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q43" s="5"/>
+      <c r="Q43" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R43" s="5"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="B44" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44" s="5">
         <v>0.0</v>
@@ -2816,12 +2903,14 @@
       <c r="P44" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q44" s="5"/>
+      <c r="Q44" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R44" s="5"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="B45" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45" s="5">
         <v>0.0</v>
@@ -2865,12 +2954,14 @@
       <c r="P45" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q45" s="5"/>
+      <c r="Q45" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R45" s="5"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="B46" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46" s="5">
         <v>0.0</v>
@@ -2914,12 +3005,14 @@
       <c r="P46" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q46" s="5"/>
+      <c r="Q46" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R46" s="5"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="B47" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47" s="5">
         <v>0.0</v>
@@ -2963,12 +3056,14 @@
       <c r="P47" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q47" s="5"/>
+      <c r="Q47" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R47" s="5"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="B48" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C48" s="5">
         <v>0.0</v>
@@ -3012,12 +3107,14 @@
       <c r="P48" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q48" s="5"/>
+      <c r="Q48" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R48" s="5"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="B49" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C49" s="5">
         <v>0.0</v>
@@ -3061,12 +3158,14 @@
       <c r="P49" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q49" s="5"/>
+      <c r="Q49" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R49" s="5"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="B50" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C50" s="5">
         <v>0.0</v>
@@ -3110,12 +3209,14 @@
       <c r="P50" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q50" s="5"/>
+      <c r="Q50" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R50" s="5"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="B51" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C51" s="5">
         <v>0.0</v>
@@ -3159,12 +3260,14 @@
       <c r="P51" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q51" s="5"/>
+      <c r="Q51" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R51" s="5"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="B52" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C52" s="5">
         <v>0.0</v>
@@ -3208,12 +3311,14 @@
       <c r="P52" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q52" s="5"/>
+      <c r="Q52" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R52" s="5"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="B53" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C53" s="5">
         <v>0.0</v>
@@ -3257,12 +3362,14 @@
       <c r="P53" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q53" s="5"/>
+      <c r="Q53" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R53" s="5"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="B54" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C54" s="5">
         <v>0.0</v>
@@ -3306,15 +3413,17 @@
       <c r="P54" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q54" s="5"/>
+      <c r="Q54" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R54" s="5"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C55" s="5">
         <v>0.0</v>
@@ -3358,12 +3467,14 @@
       <c r="P55" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q55" s="5"/>
+      <c r="Q55" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R55" s="5"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="B56" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C56" s="5">
         <v>0.0</v>
@@ -3407,12 +3518,14 @@
       <c r="P56" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q56" s="5"/>
+      <c r="Q56" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R56" s="5"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="B57" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C57" s="5">
         <v>0.0</v>
@@ -3456,12 +3569,14 @@
       <c r="P57" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q57" s="5"/>
+      <c r="Q57" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R57" s="5"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="B58" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C58" s="5">
         <v>0.0</v>
@@ -3505,12 +3620,14 @@
       <c r="P58" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q58" s="5"/>
+      <c r="Q58" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R58" s="5"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="B59" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C59" s="5">
         <v>0.0</v>
@@ -3554,12 +3671,14 @@
       <c r="P59" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q59" s="5"/>
+      <c r="Q59" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R59" s="5"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="B60" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C60" s="5">
         <v>0.0</v>
@@ -3603,12 +3722,14 @@
       <c r="P60" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q60" s="5"/>
+      <c r="Q60" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R60" s="5"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="B61" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C61" s="5">
         <v>0.0</v>
@@ -3652,12 +3773,14 @@
       <c r="P61" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q61" s="5"/>
+      <c r="Q61" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R61" s="5"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="B62" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C62" s="5">
         <v>0.0</v>
@@ -3701,12 +3824,14 @@
       <c r="P62" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q62" s="5"/>
+      <c r="Q62" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R62" s="5"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="B63" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C63" s="5">
         <v>0.0</v>
@@ -3750,12 +3875,14 @@
       <c r="P63" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q63" s="5"/>
+      <c r="Q63" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R63" s="5"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="B64" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C64" s="5">
         <v>0.0</v>
@@ -3799,12 +3926,14 @@
       <c r="P64" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q64" s="5"/>
+      <c r="Q64" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R64" s="5"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="B65" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C65" s="5">
         <v>0.0</v>
@@ -3848,12 +3977,14 @@
       <c r="P65" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q65" s="5"/>
+      <c r="Q65" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R65" s="5"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="B66" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C66" s="5">
         <v>0.0</v>
@@ -3897,15 +4028,17 @@
       <c r="P66" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q66" s="5"/>
+      <c r="Q66" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R66" s="5"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C67" s="5">
         <v>0.0</v>
@@ -3949,12 +4082,14 @@
       <c r="P67" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q67" s="5"/>
+      <c r="Q67" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R67" s="5"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="B68" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C68" s="5">
         <v>0.0</v>
@@ -3998,12 +4133,14 @@
       <c r="P68" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q68" s="5"/>
+      <c r="Q68" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R68" s="5"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="B69" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C69" s="5">
         <v>0.0</v>
@@ -4047,12 +4184,14 @@
       <c r="P69" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q69" s="5"/>
+      <c r="Q69" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R69" s="5"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="B70" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C70" s="6">
         <v>1.0</v>
@@ -4096,12 +4235,14 @@
       <c r="P70" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q70" s="5"/>
+      <c r="Q70" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R70" s="5"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="B71" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C71" s="5">
         <v>0.0</v>
@@ -4145,12 +4286,14 @@
       <c r="P71" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q71" s="5"/>
+      <c r="Q71" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R71" s="5"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="B72" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C72" s="5">
         <v>0.0</v>
@@ -4194,12 +4337,14 @@
       <c r="P72" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q72" s="5"/>
+      <c r="Q72" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R72" s="5"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="B73" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C73" s="5">
         <v>0.0</v>
@@ -4243,12 +4388,14 @@
       <c r="P73" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q73" s="5"/>
+      <c r="Q73" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R73" s="5"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="B74" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C74" s="5">
         <v>0.0</v>
@@ -4292,12 +4439,14 @@
       <c r="P74" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q74" s="5"/>
+      <c r="Q74" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R74" s="5"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="B75" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C75" s="5">
         <v>0.0</v>
@@ -4341,12 +4490,14 @@
       <c r="P75" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q75" s="5"/>
+      <c r="Q75" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R75" s="5"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="B76" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C76" s="5">
         <v>0.0</v>
@@ -4390,12 +4541,14 @@
       <c r="P76" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q76" s="5"/>
+      <c r="Q76" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R76" s="5"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="B77" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C77" s="5">
         <v>0.0</v>
@@ -4439,12 +4592,14 @@
       <c r="P77" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q77" s="5"/>
+      <c r="Q77" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R77" s="5"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="B78" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C78" s="5">
         <v>0.0</v>
@@ -4488,12 +4643,14 @@
       <c r="P78" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q78" s="5"/>
+      <c r="Q78" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R78" s="5"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="B79" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C79" s="5">
         <v>0.0</v>
@@ -4537,12 +4694,14 @@
       <c r="P79" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q79" s="5"/>
+      <c r="Q79" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R79" s="5"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="B80" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C80" s="5">
         <v>0.0</v>
@@ -4586,12 +4745,14 @@
       <c r="P80" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q80" s="5"/>
+      <c r="Q80" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R80" s="5"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C81" s="5">
         <v>0.0</v>
@@ -4635,7 +4796,9 @@
       <c r="P81" s="5">
         <v>0.0</v>
       </c>
-      <c r="Q81" s="5"/>
+      <c r="Q81" s="5">
+        <v>0.0</v>
+      </c>
       <c r="R81" s="5"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
